--- a/data/georgia_census/imereti/terjola/age_dependency.xlsx
+++ b/data/georgia_census/imereti/terjola/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D89229C-CA79-427C-8F2E-4040B812DD8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B927F6E6-06F6-4568-BE4A-B96502C4DBBC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C751149-89EE-491F-814D-871ECB838F3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E71281-38DC-4EB0-BB14-9BB7A12F8748}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD41E1F-6634-41F0-B4C1-E9D66A543312}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11FD31AD-FF2A-411E-A8AF-D7280DD5408D}"/>
 </file>